--- a/pred_ohlcv/54_21/2019-10-27 MIX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 MIX ohlcv.xlsx
@@ -1094,7 +1094,7 @@
         <v>9243117.222316667</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>9243117.222316667</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>9657170.469416667</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>9495110.772516666</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>10208216.03481666</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>10165204.02531666</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>10165326.68431666</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>10165326.68431666</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>10165326.68431666</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>10160316.82531667</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>10101626.39981667</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>10554313.55861667</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>10531466.48991667</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>9723575.413216665</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>9710890.514916666</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>9708774.351016667</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>9712017.644316666</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>9531226.523916665</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>13215167.33441059</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>12908626.90341059</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>12693158.19331059</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>12799959.62321059</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>12799959.62321059</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>12795191.30031059</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>12923542.74951059</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>12470657.96691059</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>12492791.67591059</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>12486791.67591059</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>12410464.62941059</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>12416986.06641059</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>12345647.44181059</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>12406416.96381059</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>12406416.96381059</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>12406416.96381059</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>12406416.96381059</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>12338012.74181059</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>12353996.34461059</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>12353050.83461059</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>12375099.3188106</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>12243891.80911059</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>12127491.19181059</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>10997613.96201059</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>10728750.28411059</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>10794051.83673834</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>10794051.83673834</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>10794051.83673834</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>10793810.44273834</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>10796813.37513834</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>10796813.37513834</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>10796813.37513834</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>10796813.37513834</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>10796923.34243834</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>10796923.34243834</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>11058278.34033834</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>11058278.34033834</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>11058278.34033834</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>11054866.91293834</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>10993215.48013834</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>7987655.481916288</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>7987665.481916288</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>7728288.177016288</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>7639652.042416288</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-3700589.59562657</v>
       </c>
       <c r="H494">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-3443882.06982657</v>
       </c>
       <c r="H508">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-3443882.06982657</v>
       </c>
       <c r="H509">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-3094829.94482657</v>
       </c>
       <c r="H510">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-2843232.790844197</v>
       </c>
       <c r="H517">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-683042.1255441981</v>
       </c>
       <c r="H543">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-925495.2274603</v>
       </c>
       <c r="H584">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-915482.3276603</v>
       </c>
       <c r="H585">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>4563873.009475744</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>5121940.139475744</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>6172932.631870111</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>5320343.502170111</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>5040343.502170111</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>4629967.762670112</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>4532013.762570111</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>4316966.491870111</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>4316966.491870111</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>4519273.946470111</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>4453166.669070111</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>4453166.669070111</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>4453166.669070111</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>4525134.809470111</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>5123068.50257011</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>5080390.16567011</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>5080390.16567011</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>5127788.27107011</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>5076924.25217011</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>4858154.12807011</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>4853154.12807011</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>4847154.12807011</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>4846025.480370111</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>4346370.539670111</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>4425418.22357011</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>3984712.62577011</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-785983.2063298888</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-5439775.572314905</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-6649211.596114906</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-6649211.596114906</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-7236383.787214906</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-7196373.787214906</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-7327137.394214906</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-7576055.877114906</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-27 MIX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 MIX ohlcv.xlsx
@@ -1094,7 +1094,7 @@
         <v>9243117.222316667</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>9243117.222316667</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>9657170.469416667</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>9495110.772516666</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>10208216.03481666</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>10165204.02531666</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>10165326.68431666</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>10165326.68431666</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>10165326.68431666</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>10160316.82531667</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>10101626.39981667</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>10554313.55861667</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>10531466.48991667</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>9723575.413216665</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>9710890.514916666</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>9708774.351016667</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>9712017.644316666</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>9531226.523916665</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>13215167.33441059</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>12908626.90341059</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>12693158.19331059</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>12799959.62321059</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>12799959.62321059</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>12795191.30031059</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>12923542.74951059</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>12470657.96691059</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>12492791.67591059</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>12486791.67591059</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>12410464.62941059</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>12416986.06641059</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>12345647.44181059</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>12406416.96381059</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>12406416.96381059</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>12406416.96381059</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>12406416.96381059</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>12338012.74181059</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>12353996.34461059</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>12353050.83461059</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>12375099.3188106</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>12243891.80911059</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>12127491.19181059</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>10997613.96201059</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>10728750.28411059</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>10794051.83673834</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>10794051.83673834</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>10794051.83673834</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>10793810.44273834</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>10796813.37513834</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>10796813.37513834</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>10796813.37513834</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>10796813.37513834</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>10796813.37513834</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>10796923.34243834</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>10796923.34243834</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>11058278.34033834</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>11058278.34033834</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>11058278.34033834</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>11054866.91293834</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>10993215.48013834</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>7987655.481916288</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>7987665.481916288</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>7728288.177016288</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>7639652.042416288</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-3699499.15942657</v>
       </c>
       <c r="H491">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-3700589.59562657</v>
       </c>
       <c r="H492">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-3700589.59562657</v>
       </c>
       <c r="H493">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-3700589.59562657</v>
       </c>
       <c r="H495">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-3700589.59562657</v>
       </c>
       <c r="H496">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-3698517.81612657</v>
       </c>
       <c r="H497">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-3443882.06982657</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-3443882.06982657</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-3094829.94482657</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-2805033.281244197</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-2969178.228844197</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-2741874.501644197</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-2967137.237344197</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-2967137.237344197</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-2843232.790844197</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-2843222.790844197</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-2843222.790844197</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-2843222.790844197</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-2852686.774844198</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-2853209.136644198</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-2853152.744644198</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-2853152.744644198</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-2853152.744644198</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-2848939.744644198</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-2380600.214344198</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-1887024.773044198</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-1819397.477644198</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-1839089.938244198</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-1839101.938244198</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-1722129.664344198</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-1077265.152844198</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-175531.797944198</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-146053.570644198</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-164303.792844198</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-164303.792844198</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-166484.792844198</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-9584.792844198004</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>368944.858255802</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-760942.4118441981</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-723562.0873441981</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-683042.1255441981</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-578381.9306842423</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-578709.9484029576</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-579037.9661029576</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-683461.1164029576</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-681062.2092029576</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-475279.7762029576</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-475279.7762029576</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-475354.1664029576</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-401586.2199816288</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-377087.6770816288</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>4563873.009475744</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>5121940.139475744</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>6172932.631870111</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>5320343.502170111</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>5040343.502170111</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>4629967.762670112</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>4532013.762570111</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>4316966.491870111</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>4316966.491870111</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>4519273.946470111</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>4453166.669070111</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>4453166.669070111</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>4453166.669070111</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>4525134.809470111</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>5123068.50257011</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>5080390.16567011</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>5080390.16567011</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>5127788.27107011</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>5076924.25217011</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>4858154.12807011</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>4853154.12807011</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>4847154.12807011</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>4846025.480370111</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>4346370.539670111</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>4425418.22357011</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>3984712.62577011</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-785983.2063298888</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-5439775.572314905</v>
       </c>
       <c r="H764">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-6649211.596114906</v>
       </c>
       <c r="H766">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-6649211.596114906</v>
       </c>
       <c r="H767">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-7236383.787214906</v>
       </c>
       <c r="H768">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-7196373.787214906</v>
       </c>
       <c r="H769">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-7327137.394214906</v>
       </c>
       <c r="H770">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-7576055.877114906</v>
       </c>
       <c r="H771">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
